--- a/bi_generic_import/Sample XLS-CSV File/Sample XLS File/partner.xlsx
+++ b/bi_generic_import/Sample XLS-CSV File/Sample XLS File/partner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -84,6 +84,12 @@
     <t xml:space="preserve">VENDOR PAYMENT TERMS</t>
   </si>
   <si>
+    <t xml:space="preserve">x_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_total_amount</t>
+  </si>
+  <si>
     <t xml:space="preserve">abc</t>
   </si>
   <si>
@@ -135,6 +141,9 @@
     <t xml:space="preserve">15 Days</t>
   </si>
   <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
     <t xml:space="preserve">mno</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">123584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
   </si>
 </sst>
 </file>
@@ -281,26 +293,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U4" activeCellId="0" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="27.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="24.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,46 +378,52 @@
       <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -414,54 +434,60 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -472,16 +498,22 @@
         <v>1</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +523,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -506,18 +538,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -532,18 +564,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
